--- a/analysis_SP/sp2018_c.xlsx
+++ b/analysis_SP/sp2018_c.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t xml:space="preserve">cid_grupos</t>
   </si>
@@ -71,6 +71,9 @@
     <t xml:space="preserve">Idade ignorada</t>
   </si>
   <si>
+    <t xml:space="preserve">Total</t>
+  </si>
+  <si>
     <t xml:space="preserve">Doenças do aparelho circulatório</t>
   </si>
   <si>
@@ -84,6 +87,9 @@
   </si>
   <si>
     <t xml:space="preserve">Neoplasmas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Outros</t>
   </si>
 </sst>
 </file>
@@ -473,10 +479,13 @@
       <c r="S1" t="s">
         <v>18</v>
       </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B2" t="n">
         <v>137</v>
@@ -531,11 +540,14 @@
       </c>
       <c r="S2" t="n">
         <v>72</v>
+      </c>
+      <c r="T2" t="n">
+        <v>87713</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" t="n">
         <v>36</v>
@@ -589,10 +601,13 @@
         <v>6267</v>
       </c>
       <c r="S3"/>
+      <c r="T3" t="n">
+        <v>11913</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" t="n">
         <v>471</v>
@@ -647,11 +662,14 @@
       </c>
       <c r="S4" t="n">
         <v>48</v>
+      </c>
+      <c r="T4" t="n">
+        <v>40539</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B5" t="n">
         <v>50</v>
@@ -706,11 +724,14 @@
       </c>
       <c r="S5" t="n">
         <v>3</v>
+      </c>
+      <c r="T5" t="n">
+        <v>14398</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B6" t="n">
         <v>121</v>
@@ -765,6 +786,133 @@
       </c>
       <c r="S6" t="n">
         <v>5</v>
+      </c>
+      <c r="T6" t="n">
+        <v>56384</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" t="n">
+        <v>6724</v>
+      </c>
+      <c r="C7" t="n">
+        <v>260</v>
+      </c>
+      <c r="D7" t="n">
+        <v>418</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1896</v>
+      </c>
+      <c r="F7" t="n">
+        <v>2719</v>
+      </c>
+      <c r="G7" t="n">
+        <v>2683</v>
+      </c>
+      <c r="H7" t="n">
+        <v>3012</v>
+      </c>
+      <c r="I7" t="n">
+        <v>3465</v>
+      </c>
+      <c r="J7" t="n">
+        <v>3769</v>
+      </c>
+      <c r="K7" t="n">
+        <v>4298</v>
+      </c>
+      <c r="L7" t="n">
+        <v>4951</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5406</v>
+      </c>
+      <c r="N7" t="n">
+        <v>5783</v>
+      </c>
+      <c r="O7" t="n">
+        <v>5933</v>
+      </c>
+      <c r="P7" t="n">
+        <v>6167</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>6827</v>
+      </c>
+      <c r="R7" t="n">
+        <v>22621</v>
+      </c>
+      <c r="S7" t="n">
+        <v>434</v>
+      </c>
+      <c r="T7" t="n">
+        <v>87366</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" t="n">
+        <v>7539</v>
+      </c>
+      <c r="C8" t="n">
+        <v>462</v>
+      </c>
+      <c r="D8" t="n">
+        <v>630</v>
+      </c>
+      <c r="E8" t="n">
+        <v>2348</v>
+      </c>
+      <c r="F8" t="n">
+        <v>3431</v>
+      </c>
+      <c r="G8" t="n">
+        <v>3695</v>
+      </c>
+      <c r="H8" t="n">
+        <v>4590</v>
+      </c>
+      <c r="I8" t="n">
+        <v>6274</v>
+      </c>
+      <c r="J8" t="n">
+        <v>7895</v>
+      </c>
+      <c r="K8" t="n">
+        <v>10816</v>
+      </c>
+      <c r="L8" t="n">
+        <v>15632</v>
+      </c>
+      <c r="M8" t="n">
+        <v>20763</v>
+      </c>
+      <c r="N8" t="n">
+        <v>26309</v>
+      </c>
+      <c r="O8" t="n">
+        <v>29515</v>
+      </c>
+      <c r="P8" t="n">
+        <v>31499</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>33059</v>
+      </c>
+      <c r="R8" t="n">
+        <v>93294</v>
+      </c>
+      <c r="S8" t="n">
+        <v>562</v>
+      </c>
+      <c r="T8" t="n">
+        <v>298313</v>
       </c>
     </row>
   </sheetData>
